--- a/Scripts/parameters_output_27453.xlsx
+++ b/Scripts/parameters_output_27453.xlsx
@@ -652,16 +652,16 @@
         <v>18</v>
       </c>
       <c r="G7">
-        <v>3386271.851881268</v>
+        <v>3115560.796235249</v>
       </c>
       <c r="H7">
-        <v>50896.38475340397</v>
+        <v>48037.32826257419</v>
       </c>
       <c r="I7">
-        <v>12</v>
+        <v>3.97</v>
       </c>
       <c r="J7">
-        <v>406275.6996880535</v>
+        <v>123693.5013324463</v>
       </c>
     </row>
     <row r="8" spans="1:10">
